--- a/bin/PD_extrapoladas.xlsx
+++ b/bin/PD_extrapoladas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA6EFCD-BC84-4D3D-A122-80317CBF792D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B829E5-41E9-4299-9028-6A192F4C6DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5446E914-89E6-4C64-A66C-903D5DACC7B2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5446E914-89E6-4C64-A66C-903D5DACC7B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Base" sheetId="2" r:id="rId1"/>
+    <sheet name="Extrapoladas" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Periodo</t>
   </si>
@@ -49,12 +50,24 @@
   <si>
     <t>PD_marg</t>
   </si>
+  <si>
+    <t>Años</t>
+  </si>
+  <si>
+    <t>PD_acum</t>
+  </si>
+  <si>
+    <t>No_PD_acum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="##,##0.00_);\(##,##0.00\);\-_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +75,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,14 +109,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent 2" xfId="1" xr:uid="{65132AC5-13F8-42D5-9954-EA2FCEB17FBF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,16 +452,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5C5FEF-F0E3-4888-916D-F6CF18B389E9}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>1-B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">1-B3</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.34545454545454551</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.65454545454545454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.35416666666666674</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.64583333333333326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.58974358974358976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.58823529411764697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.54545454545454553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.53125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7C0669-F1F9-4407-BB22-256D39720483}">
   <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -455,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -469,7 +640,7 @@
         <v>0.13397459621556129</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -483,7 +654,7 @@
         <v>0.11602540378443871</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -497,7 +668,7 @@
         <v>4.8439239979885973E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -511,7 +682,7 @@
         <v>4.5310760020114027E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -525,7 +696,7 @@
         <v>8.5282687102272714E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -539,7 +710,7 @@
         <v>8.5171858352273144E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -553,7 +724,7 @@
         <v>4.3706528749555273E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -567,7 +738,7 @@
         <v>4.3414683371657548E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.5</v>
       </c>
@@ -581,7 +752,7 @@
         <v>2.8681756833630612E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -595,7 +766,7 @@
         <v>2.740798675611289E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.5</v>
       </c>
@@ -609,7 +780,7 @@
         <v>7.5463062226854838E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -623,7 +794,7 @@
         <v>7.5366500367424205E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.5</v>
       </c>
@@ -637,7 +808,7 @@
         <v>2.1794110080626261E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -651,7 +822,7 @@
         <v>2.0986638582475181E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -665,7 +836,7 @@
         <v>7.1491235305903844E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -679,7 +850,7 @@
         <v>7.0554219239551408E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8.5</v>
       </c>
@@ -693,7 +864,7 @@
         <v>6.9629484386479756E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -707,7 +878,7 @@
         <v>6.871686978018765E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.5</v>
       </c>
@@ -721,7 +892,7 @@
         <v>6.7816216563915122E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -735,7 +906,7 @@
         <v>6.6927367962994477E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10.5</v>
       </c>
@@ -749,7 +920,7 @@
         <v>6.605016925756324E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -763,7 +934,7 @@
         <v>6.5184467755624587E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11.5</v>
       </c>
@@ -777,7 +948,7 @@
         <v>6.4330112766481928E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -791,7 +962,7 @@
         <v>6.3486955574489912E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12.5</v>
       </c>
@@ -805,7 +976,7 @@
         <v>6.265484941318622E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -819,7 +990,7 @@
         <v>6.183364943973646E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13.5</v>
       </c>
@@ -833,7 +1004,7 @@
         <v>6.1023212709718777E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -847,7 +1018,7 @@
         <v>6.0223398152243757E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14.5</v>
       </c>
@@ -861,7 +1032,7 @@
         <v>5.9434066545402953E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
@@ -875,7 +1046,7 @@
         <v>5.8655080492028278E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15.5</v>
       </c>
@@ -889,7 +1060,7 @@
         <v>5.788630439578446E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16</v>
       </c>
@@ -903,7 +1074,7 @@
         <v>5.7127604437547941E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16.5</v>
       </c>
@@ -917,7 +1088,7 @@
         <v>5.6378848552143257E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17</v>
       </c>
@@ -931,7 +1102,7 @@
         <v>5.563990640532257E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>17.5</v>
       </c>
@@ -945,7 +1116,7 @@
         <v>5.4910649371096021E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
@@ -959,7 +1130,7 @@
         <v>5.4190950509349634E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18.5</v>
       </c>
@@ -973,7 +1144,7 @@
         <v>5.3480684543725232E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19</v>
       </c>
@@ -987,7 +1158,7 @@
         <v>5.2779727839835644E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19.5</v>
       </c>
@@ -1001,7 +1172,7 @@
         <v>5.2087958383731925E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20</v>
       </c>
@@ -1015,7 +1186,7 @@
         <v>5.1405255760673674E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20.5</v>
       </c>
@@ -1029,7 +1200,7 @@
         <v>5.073150113415581E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21</v>
       </c>
@@ -1043,7 +1214,7 @@
         <v>5.006657722523844E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21.5</v>
       </c>
@@ -1057,7 +1228,7 @@
         <v>4.9410368292119866E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
@@ -1071,7 +1242,7 @@
         <v>4.8762760109997139E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22.5</v>
       </c>
@@ -1085,7 +1256,7 @@
         <v>4.8123639951180852E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23</v>
       </c>
@@ -1099,7 +1270,7 @@
         <v>4.7492896565466403E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23.5</v>
       </c>
@@ -1113,7 +1284,7 @@
         <v>4.687042016078502E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>24</v>
       </c>
@@ -1127,7 +1298,7 @@
         <v>4.6256102384074627E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>24.5</v>
       </c>
@@ -1141,7 +1312,7 @@
         <v>4.5649836302430469E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25</v>
       </c>
@@ -1155,7 +1326,7 @@
         <v>4.5051516384488899E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25.5</v>
       </c>
@@ -1169,7 +1340,7 @@
         <v>4.4461038482055404E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -1183,7 +1354,7 @@
         <v>4.3878299811976884E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26.5</v>
       </c>
@@ -1197,7 +1368,7 @@
         <v>4.3303198938251519E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
@@ -1211,7 +1382,7 @@
         <v>4.2735635754372892E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>27.5</v>
       </c>
@@ -1225,7 +1396,7 @@
         <v>4.2175511465900595E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>28</v>
       </c>
@@ -1239,7 +1410,7 @@
         <v>4.1622728573269541E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>28.5</v>
       </c>
@@ -1253,7 +1424,7 @@
         <v>4.1077190854811318E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>29</v>
       </c>
@@ -1267,7 +1438,7 @@
         <v>4.053880335000537E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>29.5</v>
       </c>
@@ -1281,7 +1452,7 @@
         <v>4.0007472342966643E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
@@ -1295,7 +1466,7 @@
         <v>3.9483105346100889E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30.5</v>
       </c>
@@ -1309,7 +1480,7 @@
         <v>3.896561108403418E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>31</v>
       </c>
@@ -1323,7 +1494,7 @@
         <v>3.8454899477713411E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>31.5</v>
       </c>
@@ -1337,7 +1508,7 @@
         <v>3.7950881628721067E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>32</v>
       </c>
@@ -1351,7 +1522,7 @@
         <v>3.7453469803814254E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>32.5</v>
       </c>
@@ -1365,7 +1536,7 @@
         <v>3.6962577419639153E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>33</v>
       </c>
@@ -1379,7 +1550,7 @@
         <v>3.6478119027673062E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>33.5</v>
       </c>
@@ -1393,7 +1564,7 @@
         <v>3.6000010299336305E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>34</v>
       </c>
@@ -1407,7 +1578,7 @@
         <v>3.5528168011327299E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>34.5</v>
       </c>
@@ -1421,7 +1592,7 @@
         <v>3.506251003112526E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>35</v>
       </c>
@@ -1435,7 +1606,7 @@
         <v>3.4602955302698302E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>35.5</v>
       </c>
@@ -1449,7 +1620,7 @@
         <v>3.4149423832398051E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>36</v>
       </c>
@@ -1463,7 +1634,7 @@
         <v>3.3701836675025243E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>36.5</v>
       </c>
@@ -1477,7 +1648,7 @@
         <v>3.3260115920095146E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>37</v>
       </c>
@@ -1491,7 +1662,7 @@
         <v>3.2824184678279522E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>37.5</v>
       </c>
@@ -1505,7 +1676,7 @@
         <v>3.2393967068009566E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>38</v>
       </c>
@@ -1519,7 +1690,7 @@
         <v>3.1969388202282012E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>38.5</v>
       </c>
@@ -1533,7 +1704,7 @@
         <v>3.1550374175614015E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>39</v>
       </c>
@@ -1547,7 +1718,7 @@
         <v>3.1136852051181219E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>39.5</v>
       </c>
@@ -1561,7 +1732,7 @@
         <v>3.072874984812346E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>40</v>
       </c>
@@ -1575,7 +1746,7 @@
         <v>3.0325996529014798E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40.5</v>
       </c>
@@ -1589,7 +1760,7 @@
         <v>2.9928521987495627E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>41</v>
       </c>
@@ -1603,7 +1774,7 @@
         <v>2.9536257036072433E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>41.5</v>
       </c>
@@ -1617,7 +1788,7 @@
         <v>2.914913339407077E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>42</v>
       </c>
@@ -1631,7 +1802,7 @@
         <v>2.8767083675756977E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>42.5</v>
       </c>
@@ -1645,7 +1816,7 @@
         <v>2.8390041378600905E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>43</v>
       </c>
@@ -1659,7 +1830,7 @@
         <v>2.8017940871700731E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>43.5</v>
       </c>
@@ -1673,7 +1844,7 @@
         <v>2.765071738436653E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>44</v>
       </c>
@@ -1687,7 +1858,7 @@
         <v>2.7288306994834866E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>44.5</v>
       </c>
@@ -1701,7 +1872,7 @@
         <v>2.693064661914768E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>45</v>
       </c>
@@ -1715,7 +1886,7 @@
         <v>2.6577674000176632E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>45.5</v>
       </c>
@@ -1729,7 +1900,7 @@
         <v>2.6229327696775107E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>46</v>
       </c>
@@ -1743,7 +1914,7 @@
         <v>2.5885547073088988E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>46.5</v>
       </c>
@@ -1757,7 +1928,7 @@
         <v>2.5546272288003991E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>47</v>
       </c>
@@ -1771,7 +1942,7 @@
         <v>2.5211444284727325E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>47.5</v>
       </c>
@@ -1785,7 +1956,7 @@
         <v>2.4881004780504812E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>48</v>
       </c>
@@ -1799,7 +1970,7 @@
         <v>2.4554896256480108E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>48.5</v>
       </c>
@@ -1813,7 +1984,7 @@
         <v>2.4233061947678269E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>49</v>
       </c>
@@ -1827,7 +1998,7 @@
         <v>2.3915445833133653E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>49.5</v>
       </c>
@@ -1841,7 +2012,7 @@
         <v>2.360199262612328E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>50</v>
       </c>
@@ -1855,7 +2026,7 @@
         <v>2.3292647764563412E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>50.5</v>
       </c>
@@ -1869,7 +2040,7 @@
         <v>2.2987357401486053E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>51</v>
       </c>
@@ -1883,7 +2054,7 @@
         <v>2.2686068395693093E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>51.5</v>
       </c>
@@ -1897,7 +2068,7 @@
         <v>2.238872830248817E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>52</v>
       </c>
@@ -1911,7 +2082,7 @@
         <v>2.2095285364556183E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>52.5</v>
       </c>
@@ -1925,7 +2096,7 @@
         <v>2.1805688502944953E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>53</v>
       </c>
@@ -1939,7 +2110,7 @@
         <v>2.1519887308186769E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>53.5</v>
       </c>
@@ -1953,7 +2124,7 @@
         <v>2.1237832031513193E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>54</v>
       </c>
@@ -1967,7 +2138,7 @@
         <v>2.0959473576203091E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>54.5</v>
       </c>
@@ -1981,7 +2152,7 @@
         <v>2.0684763489027258E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>55</v>
       </c>
@@ -1995,7 +2166,7 @@
         <v>2.041365395182293E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>55.5</v>
       </c>
@@ -2009,7 +2180,7 @@
         <v>2.0146097773166005E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>56</v>
       </c>
@@ -2023,7 +2194,7 @@
         <v>1.9882048380160944E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>56.5</v>
       </c>
@@ -2037,7 +2208,7 @@
         <v>1.9621459810323927E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>57</v>
       </c>
@@ -2051,7 +2222,7 @@
         <v>1.9364286703593692E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>57.5</v>
       </c>
@@ -2065,7 +2236,7 @@
         <v>1.9110484294430075E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>58</v>
       </c>
@@ -2079,7 +2250,7 @@
         <v>1.8860008404020245E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>58.5</v>
       </c>
@@ -2093,7 +2264,7 @@
         <v>1.8612815432597074E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>59</v>
       </c>
@@ -2107,7 +2278,7 @@
         <v>1.8368862351831883E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>59.5</v>
       </c>
@@ -2121,7 +2292,7 @@
         <v>1.8128106697372637E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>60</v>
       </c>
@@ -2135,7 +2306,7 @@
         <v>1.7890506561419883E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>60.5</v>
       </c>
@@ -2149,7 +2320,7 @@
         <v>1.7656020585461452E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>61</v>
       </c>
@@ -2163,7 +2334,7 @@
         <v>1.7424607953050453E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>61.5</v>
       </c>
@@ -2177,7 +2348,7 @@
         <v>1.7196228382715395E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>62</v>
       </c>
@@ -2191,7 +2362,7 @@
         <v>1.6970842120939134E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>62.5</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>1.6748409935248842E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>63</v>
       </c>
@@ -2219,7 +2390,7 @@
         <v>1.65288931073726E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>63.5</v>
       </c>
@@ -2233,7 +2404,7 @@
         <v>1.6312253426518097E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>64</v>
       </c>
@@ -2247,7 +2418,7 @@
         <v>1.6098453182702421E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>64.5</v>
       </c>
@@ -2261,7 +2432,7 @@
         <v>1.5887455160202846E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>65</v>
       </c>
@@ -2275,7 +2446,7 @@
         <v>1.56792226310698E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>65.5</v>
       </c>
@@ -2289,7 +2460,7 @@
         <v>1.5473719348738646E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>66</v>
       </c>
@@ -2303,7 +2474,7 @@
         <v>1.5270909541718058E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>66.5</v>
       </c>
@@ -2317,7 +2488,7 @@
         <v>1.5070757907366117E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>67</v>
       </c>
@@ -2331,7 +2502,7 @@
         <v>1.4873229605736338E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>67.5</v>
       </c>
@@ -2345,7 +2516,7 @@
         <v>1.467829025352696E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>68</v>
       </c>
@@ -2359,7 +2530,7 @@
         <v>1.448590591808685E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>68.5</v>
       </c>
@@ -2373,7 +2544,7 @@
         <v>1.4296043111509116E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>69</v>
       </c>
@@ -2387,7 +2558,7 @@
         <v>1.4108668784803546E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>69.5</v>
       </c>
@@ -2401,7 +2572,7 @@
         <v>1.3923750322146766E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>70</v>
       </c>
@@ -2415,7 +2586,7 @@
         <v>1.3741255535199004E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>70.5</v>
       </c>
@@ -2429,7 +2600,7 @@
         <v>1.3561152657507458E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>71</v>
       </c>
@@ -2443,7 +2614,7 @@
         <v>1.3383410338969615E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>71.5</v>
       </c>
@@ -2457,7 +2628,7 @@
         <v>1.3207997640385383E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>72</v>
       </c>
@@ -2471,7 +2642,7 @@
         <v>1.303488402805919E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>72.5</v>
       </c>
@@ -2485,7 +2656,7 @@
         <v>1.286403936849978E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>73</v>
       </c>
@@ -2499,7 +2670,7 @@
         <v>1.2695433923162192E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>73.5</v>
       </c>
@@ -2513,7 +2684,7 @@
         <v>1.2529038343278565E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>74</v>
       </c>
@@ -2527,7 +2698,7 @@
         <v>1.2364823664745561E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>74.5</v>
       </c>
@@ -2541,7 +2712,7 @@
         <v>1.2202761303089504E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>75</v>
       </c>
@@ -2555,7 +2726,7 @@
         <v>1.2042823048475926E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>75.5</v>
       </c>
@@ -2569,7 +2740,7 @@
         <v>1.1884981060821254E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>76</v>
       </c>
@@ -2583,7 +2754,7 @@
         <v>1.1729207864923374E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>76.5</v>
       </c>
@@ -2597,7 +2768,7 @@
         <v>1.1575476345695446E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>77</v>
       </c>
@@ -2611,7 +2782,7 @@
         <v>1.1423759743440787E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>77.5</v>
       </c>
@@ -2625,7 +2796,7 @@
         <v>1.1274031649192162E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>78</v>
       </c>
@@ -2639,7 +2810,7 @@
         <v>1.112626600012212E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>78.5</v>
       </c>
@@ -2653,7 +2824,7 @@
         <v>1.0980437074994409E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>79</v>
       </c>
@@ -2667,7 +2838,7 @@
         <v>1.083651948970199E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>79.5</v>
       </c>
@@ -2681,7 +2852,7 @@
         <v>1.0694488192833917E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>80</v>
       </c>
@@ -2695,7 +2866,7 @@
         <v>1.0554318461324375E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>80.5</v>
       </c>
@@ -2709,7 +2880,7 @@
         <v>1.0415985896145008E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>81</v>
       </c>
@@ -2723,7 +2894,7 @@
         <v>1.0279466418060546E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>81.5</v>
       </c>
@@ -2737,7 +2908,7 @@
         <v>1.0144736263433263E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>82</v>
       </c>
@@ -2751,7 +2922,7 @@
         <v>1.0011771980090733E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>82.5</v>
       </c>
@@ -2765,7 +2936,7 @@
         <v>9.8805504232390984E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>83</v>
       </c>
@@ -2779,7 +2950,7 @@
         <v>9.7510487514429478E-4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>83.5</v>
       </c>
@@ -2793,7 +2964,7 @@
         <v>9.6232444226340697E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>84</v>
       </c>
@@ -2807,7 +2978,7 @@
         <v>9.4971151902067952E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>84.5</v>
       </c>
@@ -2821,7 +2992,7 @@
         <v>9.3726390991277775E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>85</v>
       </c>
@@ -2835,7 +3006,7 @@
         <v>9.2497944821290368E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>85.5</v>
       </c>
@@ -2849,7 +3020,7 @@
         <v>9.1285599559220998E-4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>86</v>
       </c>
@@ -2863,7 +3034,7 @@
         <v>9.0089144174887448E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>86.5</v>
       </c>
@@ -2877,7 +3048,7 @@
         <v>8.8908370404039427E-4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>87</v>
       </c>
@@ -2891,7 +3062,7 @@
         <v>8.7743072711998771E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>87.5</v>
       </c>
@@ -2905,7 +3076,7 @@
         <v>8.6593048258098992E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>88</v>
       </c>
@@ -2919,7 +3090,7 @@
         <v>8.5458096860124844E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>88.5</v>
       </c>
@@ -2933,7 +3104,7 @@
         <v>8.4338020959706661E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>89</v>
       </c>
@@ -2947,7 +3118,7 @@
         <v>8.3232625587736919E-4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>89.5</v>
       </c>
@@ -2961,7 +3132,7 @@
         <v>8.2141718330541735E-4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>90</v>
       </c>
@@ -2975,7 +3146,7 @@
         <v>8.1065109296396543E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>90.5</v>
       </c>
@@ -2989,7 +3160,7 @@
         <v>8.0002611082352626E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>91</v>
       </c>
@@ -3003,7 +3174,7 @@
         <v>7.8954038741785304E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>91.5</v>
       </c>
@@ -3017,7 +3188,7 @@
         <v>7.7919209752086438E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>92</v>
       </c>
@@ -3031,7 +3202,7 @@
         <v>7.6897943982889849E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>92.5</v>
       </c>
@@ -3045,7 +3216,7 @@
         <v>7.5890063664796337E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>93</v>
       </c>
@@ -3059,7 +3230,7 @@
         <v>7.4895393358331841E-4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>93.5</v>
       </c>
@@ -3073,7 +3244,7 @@
         <v>7.3913759923527333E-4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>94</v>
       </c>
@@ -3087,7 +3258,7 @@
         <v>7.294499248962083E-4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>94.5</v>
       </c>
@@ -3101,7 +3272,7 @@
         <v>7.1988922425514357E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>95</v>
       </c>
@@ -3115,7 +3286,7 @@
         <v>7.1045383310219812E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>95.5</v>
       </c>
@@ -3129,7 +3300,7 @@
         <v>7.0114210904015373E-4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>96</v>
       </c>
@@ -3143,7 +3314,7 @@
         <v>6.9195243119835048E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>96.5</v>
       </c>
@@ -3157,7 +3328,7 @@
         <v>6.8288319995057911E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>97</v>
       </c>
@@ -3171,7 +3342,7 @@
         <v>6.7393283663597092E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>97.5</v>
       </c>
@@ -3185,7 +3356,7 @@
         <v>6.6509978328521679E-4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>98</v>
       </c>
@@ -3199,7 +3370,7 @@
         <v>6.5638250234856255E-4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>98.5</v>
       </c>
@@ -3213,7 +3384,7 @@
         <v>6.4777947642880029E-4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>99</v>
       </c>
@@ -3227,7 +3398,7 @@
         <v>6.3928920801659128E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>99.5</v>
       </c>
@@ -3241,7 +3412,7 @@
         <v>6.3091021923011859E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>100</v>
       </c>
